--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>ELGA e-Medication Prescription with multiple MedicationRequests (eMedPrescriptionAsRequestOrchestration)</t>
+    <t>1 ELGA e-Medication Prescription with multiple MedicationRequests (eMedPrescriptionAsRequestOrchestration)</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T05:01:25+00:00</t>
+    <t>2024-04-29T05:16:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T05:16:02+00:00</t>
+    <t>2024-04-29T05:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T05:29:51+00:00</t>
+    <t>2024-04-29T05:40:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T05:40:46+00:00</t>
+    <t>2024-04-29T05:49:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T05:49:30+00:00</t>
+    <t>2024-04-29T07:46:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>85</v>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T07:46:22+00:00</t>
+    <t>2024-04-29T14:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -670,7 +670,7 @@
 </t>
   </si>
   <si>
-    <t>Prescription type | Rezeptart</t>
+    <t>Prescription type, default 'Kassen', still must be stated | Rezeptart, standardmäßig „Kassen“, muss jedoch angegeben werden</t>
   </si>
   <si>
     <t>A code that identifies what the overall request orchestration is.</t>
@@ -691,11 +691,11 @@
     <t>RequestOrchestration.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|Organization|Practitioner)
+    <t xml:space="preserve">Reference(http://fhir.hl7.at/elga-e-medikation-R5/StructureDefinition/at-core-patient)
 </t>
   </si>
   <si>
-    <t>Creator of the proposal (reference to the patient is created by each MedicationRequest!) | Ersteller des Rezepts (der Verweis auf den Patienten steht in jedem MedicationRequest!)</t>
+    <t>Associated HL7 Austria patient. | Zugewiesener HL7 AustriaPatient</t>
   </si>
   <si>
     <t>The subject for which the request orchestration was created.</t>
@@ -748,11 +748,11 @@
     <t>RequestOrchestration.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Practitioner)
 </t>
   </si>
   <si>
-    <t>Device or practitioner that authored the request orchestration</t>
+    <t>Creator of the proposal | Ersteller des Rezepts</t>
   </si>
   <si>
     <t>Provides a reference to the author of the request orchestration.</t>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>85</v>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T14:03:26+00:00</t>
+    <t>2024-04-30T04:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T04:58:04+00:00</t>
+    <t>2024-04-30T05:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -399,7 +399,7 @@
 Order</t>
   </si>
   <si>
-    <t xml:space="preserve">MedicationRequest {http://fhir.hl7.at/elga-e-medikation-R5/StructureDefinition/eMed-requests}
+    <t xml:space="preserve">MedicationRequest {http://fhir.hl7.at/elga-e-medikation-R5/StructureDefinition/eMed-request}
 </t>
   </si>
   <si>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T05:08:54+00:00</t>
+    <t>2024-04-30T09:05:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T09:05:02+00:00</t>
+    <t>2024-05-06T07:04:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -733,7 +733,7 @@
 </t>
   </si>
   <si>
-    <t>When the request orchestration was authored</t>
+    <t>When the prescription was authored | Wann das Rezept verfasst wurde</t>
   </si>
   <si>
     <t>Indicates when the request orchestration was created.</t>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>85</v>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T07:04:06+00:00</t>
+    <t>2024-05-06T08:04:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T08:04:54+00:00</t>
+    <t>2024-05-13T06:24:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -691,7 +691,7 @@
     <t>RequestOrchestration.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.hl7.at/elga-e-medikation-R5/StructureDefinition/at-core-patient)
+    <t xml:space="preserve">Reference(http://hl7.at/fhir/HL7ATCoreProfiles/5.0.0/StructureDefinition/at-core-patient)
 </t>
   </si>
   <si>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T06:24:50+00:00</t>
+    <t>2024-06-05T08:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T08:21:33+00:00</t>
+    <t>2024-06-06T13:51:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
+++ b/r5-ELGA-e-medikation-main/StructureDefinition-eMed-prescription-with-multiple-eMed-requests.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T13:51:15+00:00</t>
+    <t>2024-06-26T06:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
